--- a/results/break_even_data.xlsx
+++ b/results/break_even_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61432B47-9C56-4C07-9579-4F3942D090D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8E783C-B889-49BE-AF47-B1B33C6C2491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case1_apos" sheetId="1" state="hidden" r:id="rId1"/>
@@ -217,390 +217,10 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="case1_apos"/>
-      <sheetName val="case1_consq"/>
-      <sheetName val="case1_cut_off"/>
-      <sheetName val="case2_apos"/>
-      <sheetName val="case2_consq"/>
-      <sheetName val="case2_cut_off"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2">
-            <v>0.21833255740349161</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>4.3970026556027671E-2</v>
-          </cell>
-          <cell r="E2">
-            <v>8.233728915894389E-3</v>
-          </cell>
-          <cell r="F2">
-            <v>0.2044643834601956</v>
-          </cell>
-          <cell r="G2">
-            <v>-2.5738958857694672E-2</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.21833255740349161</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-          <cell r="D3">
-            <v>4.3970026556027671E-2</v>
-          </cell>
-          <cell r="E3">
-            <v>5.205590183742078E-2</v>
-          </cell>
-          <cell r="F3">
-            <v>6.0626947053156591E-2</v>
-          </cell>
-          <cell r="G3">
-            <v>-3.8608438286542009E-3</v>
-          </cell>
-          <cell r="H3">
-            <v>-0.1425326882035832</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.10600375030362991</v>
-          </cell>
-          <cell r="C4">
-            <v>2.547588926125894E-2</v>
-          </cell>
-          <cell r="D4">
-            <v>6.8397819087154157E-2</v>
-          </cell>
-          <cell r="E4">
-            <v>6.6483438010460361E-3</v>
-          </cell>
-          <cell r="F4">
-            <v>7.5797485266934455E-4</v>
-          </cell>
-          <cell r="G4">
-            <v>-3.2406965765022208E-5</v>
-          </cell>
-          <cell r="H4">
-            <v>-8.7429822764776344E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.10600375030362991</v>
-          </cell>
-          <cell r="C5">
-            <v>3.9157960609240268E-2</v>
-          </cell>
-          <cell r="D5">
-            <v>6.8397819087154157E-2</v>
-          </cell>
-          <cell r="E5">
-            <v>6.6483438010460361E-3</v>
-          </cell>
-          <cell r="F5">
-            <v>7.5797485266934455E-4</v>
-          </cell>
-          <cell r="G5">
-            <v>-3.2406965765022208E-5</v>
-          </cell>
-          <cell r="H5">
-            <v>-8.7429822764776344E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.62517529323392107</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-          <cell r="D6">
-            <v>8.79400531120553E-2</v>
-          </cell>
-          <cell r="E6">
-            <v>2.3424437643636251E-2</v>
-          </cell>
-          <cell r="F6">
-            <v>0.58027739243405474</v>
-          </cell>
-          <cell r="G6">
-            <v>-7.363773876625801E-2</v>
-          </cell>
-          <cell r="H6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.62517529323392107</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-          <cell r="D7">
-            <v>8.79400531120553E-2</v>
-          </cell>
-          <cell r="E7">
-            <v>0.14710129028818211</v>
-          </cell>
-          <cell r="F7">
-            <v>8.7827338273321356E-2</v>
-          </cell>
-          <cell r="G7">
-            <v>-1.10456608149387E-2</v>
-          </cell>
-          <cell r="H7">
-            <v>-0.40379594448130263</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.17883492281801849</v>
-          </cell>
-          <cell r="C8">
-            <v>5.0951778522517872E-2</v>
-          </cell>
-          <cell r="D8">
-            <v>0.12311607435687751</v>
-          </cell>
-          <cell r="E8">
-            <v>8.3818131221740384E-3</v>
-          </cell>
-          <cell r="F8">
-            <v>3.7898742633467233E-4</v>
-          </cell>
-          <cell r="G8">
-            <v>-6.4813931530044458E-5</v>
-          </cell>
-          <cell r="H8">
-            <v>-0.14711536669735459</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.17883492281801849</v>
-          </cell>
-          <cell r="C9">
-            <v>3.6321508374746077E-2</v>
-          </cell>
-          <cell r="D9">
-            <v>0.12311607435687751</v>
-          </cell>
-          <cell r="E9">
-            <v>8.3818131221740384E-3</v>
-          </cell>
-          <cell r="F9">
-            <v>3.7898742633467233E-4</v>
-          </cell>
-          <cell r="G9">
-            <v>-6.4813931530044458E-5</v>
-          </cell>
-          <cell r="H9">
-            <v>-0.14711536669735459</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>0.24760101286060679</v>
-          </cell>
-          <cell r="C2">
-            <v>0</v>
-          </cell>
-          <cell r="D2">
-            <v>0.18669863564806219</v>
-          </cell>
-          <cell r="E2">
-            <v>1.879080227021709E-4</v>
-          </cell>
-          <cell r="F2">
-            <v>0.2030696167859434</v>
-          </cell>
-          <cell r="G2">
-            <v>-6.4214158720348774E-2</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.24760101286060679</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-          <cell r="D3">
-            <v>0.18669863564806219</v>
-          </cell>
-          <cell r="E3">
-            <v>7.3982352617124728E-2</v>
-          </cell>
-          <cell r="F3">
-            <v>6.0214956000446483E-2</v>
-          </cell>
-          <cell r="G3">
-            <v>-9.6321238080523154E-3</v>
-          </cell>
-          <cell r="H3">
-            <v>-0.14814785051690821</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>7.6631345326675093E-2</v>
-          </cell>
-          <cell r="C4">
-            <v>0.1083401926570749</v>
-          </cell>
-          <cell r="D4">
-            <v>0.29042009989698558</v>
-          </cell>
-          <cell r="E4">
-            <v>3.6626370284116318E-3</v>
-          </cell>
-          <cell r="F4">
-            <v>7.497579820586707E-4</v>
-          </cell>
-          <cell r="G4">
-            <v>-8.0849658868697121E-5</v>
-          </cell>
-          <cell r="H4">
-            <v>-2.4897721416745091E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>7.6631345326675093E-2</v>
-          </cell>
-          <cell r="C5">
-            <v>4.4072742552271338E-2</v>
-          </cell>
-          <cell r="D5">
-            <v>0.29042009989698558</v>
-          </cell>
-          <cell r="E5">
-            <v>3.6626370284116318E-3</v>
-          </cell>
-          <cell r="F5">
-            <v>7.497579820586707E-4</v>
-          </cell>
-          <cell r="G5">
-            <v>-8.0849658868697121E-5</v>
-          </cell>
-          <cell r="H5">
-            <v>-2.4897721416745091E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.70857260467403949</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-          <cell r="D6">
-            <v>0.37339727129612432</v>
-          </cell>
-          <cell r="E6">
-            <v>5.7693193622161134E-4</v>
-          </cell>
-          <cell r="F6">
-            <v>0.57631922258425961</v>
-          </cell>
-          <cell r="G6">
-            <v>-0.18371315914864439</v>
-          </cell>
-          <cell r="H6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.70857260467403949</v>
-          </cell>
-          <cell r="C7">
-            <v>0</v>
-          </cell>
-          <cell r="D7">
-            <v>0.37339727129612432</v>
-          </cell>
-          <cell r="E7">
-            <v>0.20931224450468419</v>
-          </cell>
-          <cell r="F7">
-            <v>8.7228248749966458E-2</v>
-          </cell>
-          <cell r="G7">
-            <v>-2.755697387229665E-2</v>
-          </cell>
-          <cell r="H7">
-            <v>-0.41784489627162208</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.12944187989952141</v>
-          </cell>
-          <cell r="C8">
-            <v>0.2166803853141499</v>
-          </cell>
-          <cell r="D8">
-            <v>0.52275617981457423</v>
-          </cell>
-          <cell r="E8">
-            <v>6.0780442235684956E-3</v>
-          </cell>
-          <cell r="F8">
-            <v>3.7487899102933529E-4</v>
-          </cell>
-          <cell r="G8">
-            <v>-1.6169931773739451E-4</v>
-          </cell>
-          <cell r="H8">
-            <v>-4.1721130288211609E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.12944187989952141</v>
-          </cell>
-          <cell r="C9">
-            <v>2.7410638615451632E-2</v>
-          </cell>
-          <cell r="D9">
-            <v>0.52275617981457423</v>
-          </cell>
-          <cell r="E9">
-            <v>6.0780442235684956E-3</v>
-          </cell>
-          <cell r="F9">
-            <v>3.7487899102933529E-4</v>
-          </cell>
-          <cell r="G9">
-            <v>-1.6169931773739451E-4</v>
-          </cell>
-          <cell r="H9">
-            <v>-4.1721130288211609E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -613,114 +233,20 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Sheet1"/>
       <sheetName val="case1_apos"/>
       <sheetName val="case1_consq"/>
       <sheetName val="case1_cut_off"/>
       <sheetName val="case2_apos"/>
       <sheetName val="case2_consq"/>
-      <sheetName val="case2_cut_off"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="B2">
-            <v>1.018665785611905</v>
-          </cell>
-          <cell r="C2">
-            <v>3.338416857872192E-3</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-          <cell r="F2">
-            <v>0</v>
-          </cell>
-          <cell r="G2">
-            <v>0.42287595205255551</v>
-          </cell>
-          <cell r="H2">
-            <v>-6.2428369555823628E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>6.5028861808201235E-2</v>
-          </cell>
-          <cell r="C3">
-            <v>3.338416857872192E-3</v>
-          </cell>
-          <cell r="D3">
-            <v>2.5475888421857919E-2</v>
-          </cell>
-          <cell r="E3">
-            <v>9.7206064670927406E-2</v>
-          </cell>
-          <cell r="F3">
-            <v>1.099250691244686E-2</v>
-          </cell>
-          <cell r="G3">
-            <v>1.4549819716063979E-2</v>
-          </cell>
-          <cell r="H3">
-            <v>-1.139290863783526E-4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="2">
-          <cell r="B2">
-            <v>0.91608567404048658</v>
-          </cell>
-          <cell r="C2">
-            <v>1.5628958568536959E-2</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-          <cell r="F2">
-            <v>0</v>
-          </cell>
-          <cell r="G2">
-            <v>0.42146179463133099</v>
-          </cell>
-          <cell r="H2">
-            <v>-0.22857281463449181</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.19932473655670341</v>
-          </cell>
-          <cell r="C3">
-            <v>1.5628958568536959E-2</v>
-          </cell>
-          <cell r="D3">
-            <v>0.1083401922196647</v>
-          </cell>
-          <cell r="E3">
-            <v>9.6563414184226967E-2</v>
-          </cell>
-          <cell r="F3">
-            <v>4.6674658848099793E-2</v>
-          </cell>
-          <cell r="G3">
-            <v>1.4434060952756589E-2</v>
-          </cell>
-          <cell r="H3">
-            <v>5.0473282917505302E-3</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1265,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,31 +831,31 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>[1]case1_consq!B2</f>
-        <v>0.21833255740349161</v>
+        <f>[1]Sheet1!B2</f>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f>[1]case1_consq!C2</f>
+        <f>[1]Sheet1!C2</f>
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <f>[1]case1_consq!D2</f>
-        <v>4.3970026556027671E-2</v>
+        <f>[1]Sheet1!D2</f>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <f>[1]case1_consq!E2</f>
-        <v>8.233728915894389E-3</v>
+        <f>[1]Sheet1!E2</f>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>[1]case1_consq!F2</f>
-        <v>0.2044643834601956</v>
+        <f>[1]Sheet1!F2</f>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>[1]case1_consq!G2</f>
-        <v>-2.5738958857694672E-2</v>
+        <f>[1]Sheet1!G2</f>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f>[1]case1_consq!H2</f>
+        <f>[1]Sheet1!H2</f>
         <v>0</v>
       </c>
     </row>
@@ -1338,32 +864,32 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>[1]case1_consq!B3</f>
-        <v>0.21833255740349161</v>
+        <f>[1]Sheet1!B3</f>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <f>[1]case1_consq!C3</f>
+        <f>[1]Sheet1!C3</f>
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f>[1]case1_consq!D3</f>
-        <v>4.3970026556027671E-2</v>
+        <f>[1]Sheet1!D3</f>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <f>[1]case1_consq!E3</f>
-        <v>5.205590183742078E-2</v>
+        <f>[1]Sheet1!E3</f>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <f>[1]case1_consq!F3</f>
-        <v>6.0626947053156591E-2</v>
+        <f>[1]Sheet1!F3</f>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <f>[1]case1_consq!G3</f>
-        <v>-3.8608438286542009E-3</v>
+        <f>[1]Sheet1!G3</f>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <f>[1]case1_consq!H3</f>
-        <v>-0.1425326882035832</v>
+        <f>[1]Sheet1!H3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1371,32 +897,32 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <f>[1]case1_consq!B4</f>
-        <v>0.10600375030362991</v>
+        <f>[1]Sheet1!B4</f>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f>[1]case1_consq!C4</f>
-        <v>2.547588926125894E-2</v>
+        <f>[1]Sheet1!C4</f>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f>[1]case1_consq!D4</f>
-        <v>6.8397819087154157E-2</v>
+        <f>[1]Sheet1!D4</f>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f>[1]case1_consq!E4</f>
-        <v>6.6483438010460361E-3</v>
+        <f>[1]Sheet1!E4</f>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f>[1]case1_consq!F4</f>
-        <v>7.5797485266934455E-4</v>
+        <f>[1]Sheet1!F4</f>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f>[1]case1_consq!G4</f>
-        <v>-3.2406965765022208E-5</v>
+        <f>[1]Sheet1!G4</f>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f>[1]case1_consq!H4</f>
-        <v>-8.7429822764776344E-2</v>
+        <f>[1]Sheet1!H4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1404,32 +930,32 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <f>[1]case1_consq!B5</f>
-        <v>0.10600375030362991</v>
+        <f>[1]Sheet1!B5</f>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <f>[1]case1_consq!C5</f>
-        <v>3.9157960609240268E-2</v>
+        <f>[1]Sheet1!C5</f>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <f>[1]case1_consq!D5</f>
-        <v>6.8397819087154157E-2</v>
+        <f>[1]Sheet1!D5</f>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <f>[1]case1_consq!E5</f>
-        <v>6.6483438010460361E-3</v>
+        <f>[1]Sheet1!E5</f>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <f>[1]case1_consq!F5</f>
-        <v>7.5797485266934455E-4</v>
+        <f>[1]Sheet1!F5</f>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <f>[1]case1_consq!G5</f>
-        <v>-3.2406965765022208E-5</v>
+        <f>[1]Sheet1!G5</f>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <f>[1]case1_consq!H5</f>
-        <v>-8.7429822764776344E-2</v>
+        <f>[1]Sheet1!H5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1437,31 +963,31 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <f>[1]case1_consq!B6</f>
-        <v>0.62517529323392107</v>
+        <f>[1]Sheet1!B6</f>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <f>[1]case1_consq!C6</f>
+        <f>[1]Sheet1!C6</f>
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <f>[1]case1_consq!D6</f>
-        <v>8.79400531120553E-2</v>
+        <f>[1]Sheet1!D6</f>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <f>[1]case1_consq!E6</f>
-        <v>2.3424437643636251E-2</v>
+        <f>[1]Sheet1!E6</f>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <f>[1]case1_consq!F6</f>
-        <v>0.58027739243405474</v>
+        <f>[1]Sheet1!F6</f>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <f>[1]case1_consq!G6</f>
-        <v>-7.363773876625801E-2</v>
+        <f>[1]Sheet1!G6</f>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f>[1]case1_consq!H6</f>
+        <f>[1]Sheet1!H6</f>
         <v>0</v>
       </c>
     </row>
@@ -1470,32 +996,32 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <f>[1]case1_consq!B7</f>
-        <v>0.62517529323392107</v>
+        <f>[1]Sheet1!B7</f>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <f>[1]case1_consq!C7</f>
+        <f>[1]Sheet1!C7</f>
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <f>[1]case1_consq!D7</f>
-        <v>8.79400531120553E-2</v>
+        <f>[1]Sheet1!D7</f>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <f>[1]case1_consq!E7</f>
-        <v>0.14710129028818211</v>
+        <f>[1]Sheet1!E7</f>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <f>[1]case1_consq!F7</f>
-        <v>8.7827338273321356E-2</v>
+        <f>[1]Sheet1!F7</f>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <f>[1]case1_consq!G7</f>
-        <v>-1.10456608149387E-2</v>
+        <f>[1]Sheet1!G7</f>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <f>[1]case1_consq!H7</f>
-        <v>-0.40379594448130263</v>
+        <f>[1]Sheet1!H7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1503,32 +1029,32 @@
         <v>13</v>
       </c>
       <c r="B8" s="2">
-        <f>[1]case1_consq!B8</f>
-        <v>0.17883492281801849</v>
+        <f>[1]Sheet1!B8</f>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <f>[1]case1_consq!C8</f>
-        <v>5.0951778522517872E-2</v>
+        <f>[1]Sheet1!C8</f>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
-        <f>[1]case1_consq!D8</f>
-        <v>0.12311607435687751</v>
+        <f>[1]Sheet1!D8</f>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <f>[1]case1_consq!E8</f>
-        <v>8.3818131221740384E-3</v>
+        <f>[1]Sheet1!E8</f>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <f>[1]case1_consq!F8</f>
-        <v>3.7898742633467233E-4</v>
+        <f>[1]Sheet1!F8</f>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <f>[1]case1_consq!G8</f>
-        <v>-6.4813931530044458E-5</v>
+        <f>[1]Sheet1!G8</f>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <f>[1]case1_consq!H8</f>
-        <v>-0.14711536669735459</v>
+        <f>[1]Sheet1!H8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1536,32 +1062,32 @@
         <v>14</v>
       </c>
       <c r="B9" s="2">
-        <f>[1]case1_consq!B9</f>
-        <v>0.17883492281801849</v>
+        <f>[1]Sheet1!B9</f>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
-        <f>[1]case1_consq!C9</f>
-        <v>3.6321508374746077E-2</v>
+        <f>[1]Sheet1!C9</f>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <f>[1]case1_consq!D9</f>
-        <v>0.12311607435687751</v>
+        <f>[1]Sheet1!D9</f>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <f>[1]case1_consq!E9</f>
-        <v>8.3818131221740384E-3</v>
+        <f>[1]Sheet1!E9</f>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <f>[1]case1_consq!F9</f>
-        <v>3.7898742633467233E-4</v>
+        <f>[1]Sheet1!F9</f>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <f>[1]case1_consq!G9</f>
-        <v>-6.4813931530044458E-5</v>
+        <f>[1]Sheet1!G9</f>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
-        <f>[1]case1_consq!H9</f>
-        <v>-0.14711536669735459</v>
+        <f>[1]Sheet1!H9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1584,11 +1110,11 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2,E2:H2)</f>
-        <v>0.40529171092188693</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:D2)</f>
-        <v>4.3970026556027671E-2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -1598,11 +1124,11 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ref="B13:B17" si="0">SUM(B3,E3:H3)</f>
-        <v>0.18462187426183155</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ref="C13:C19" si="1">SUM(C3:D3)</f>
-        <v>4.3970026556027671E-2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -1612,11 +1138,11 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B4,E4:H4)*513</f>
-        <v>13.311241523350413</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
-        <v>9.3873708348413104E-2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
         <v>38</v>
@@ -1631,11 +1157,11 @@
       </c>
       <c r="B15" s="2">
         <f>SUM(B5,E5:H5)*513</f>
-        <v>13.311241523350413</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
-        <v>0.10755577969639443</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
         <v>39</v>
@@ -1650,11 +1176,11 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>1.1552393845453541</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="1"/>
-        <v>8.79400531120553E-2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -1664,11 +1190,11 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>0.44526231649918313</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>8.79400531120553E-2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -1678,11 +1204,11 @@
       </c>
       <c r="B18" s="2">
         <f>SUM(B8,E8:H8)*513</f>
-        <v>20.73317342441063</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
-        <v>0.17406785287939538</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3">
         <v>20</v>
@@ -1697,11 +1223,11 @@
       </c>
       <c r="B19" s="2">
         <f>SUM(B9,E9:H9)*513</f>
-        <v>20.73317342441063</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>0.15943758273162359</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
         <v>20</v>
@@ -1727,11 +1253,11 @@
       </c>
       <c r="B22">
         <f>IF($B$14+$C$14*D14&lt;SUM($B$12:$C$12)*D14,D14,)</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <f>IF($B$14+$C$14*E14&lt;SUM($B$13:$C$13)*E14,E14,)</f>
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1740,11 +1266,11 @@
       </c>
       <c r="B23">
         <f>IF($B$15+$C$15*D15&lt;SUM($B$12:$C$12)*D15,D15,)</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <f>IF($B$15+$C$15*E15&lt;SUM($B$13:$C$13)*E15,E15,)</f>
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1753,11 +1279,11 @@
       </c>
       <c r="B24">
         <f>IF($B$18+$C$18*$D$18&lt;SUM($B$16:$C$16)*D18,D18,)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <f>IF($B$18+$C$18*$E$18&lt;SUM($B$17:$C$17)*E18,E18,)</f>
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1766,11 +1292,11 @@
       </c>
       <c r="B25">
         <f>IF($B$19+$C$19*D19&lt;SUM($B$16:$C$16)*D19,D19,)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <f>IF($B$19+$C$19*E19&lt;SUM($B$17:$C$17)*E19,E19,)</f>
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1824,31 +1350,31 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <f>[1]case1_cut_off!B2</f>
-        <v>0.24760101286060679</v>
+        <f>[1]Sheet1!B2</f>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f>[1]case1_cut_off!C2</f>
+        <f>[1]Sheet1!C2</f>
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <f>[1]case1_cut_off!D2</f>
-        <v>0.18669863564806219</v>
+        <f>[1]Sheet1!D2</f>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <f>[1]case1_cut_off!E2</f>
-        <v>1.879080227021709E-4</v>
+        <f>[1]Sheet1!E2</f>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>[1]case1_cut_off!F2</f>
-        <v>0.2030696167859434</v>
+        <f>[1]Sheet1!F2</f>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>[1]case1_cut_off!G2</f>
-        <v>-6.4214158720348774E-2</v>
+        <f>[1]Sheet1!G2</f>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f>[1]case1_cut_off!H2</f>
+        <f>[1]Sheet1!H2</f>
         <v>0</v>
       </c>
     </row>
@@ -1857,32 +1383,32 @@
         <v>8</v>
       </c>
       <c r="B3" s="2">
-        <f>[1]case1_cut_off!B3</f>
-        <v>0.24760101286060679</v>
+        <f>[1]Sheet1!B3</f>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <f>[1]case1_cut_off!C3</f>
+        <f>[1]Sheet1!C3</f>
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f>[1]case1_cut_off!D3</f>
-        <v>0.18669863564806219</v>
+        <f>[1]Sheet1!D3</f>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <f>[1]case1_cut_off!E3</f>
-        <v>7.3982352617124728E-2</v>
+        <f>[1]Sheet1!E3</f>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <f>[1]case1_cut_off!F3</f>
-        <v>6.0214956000446483E-2</v>
+        <f>[1]Sheet1!F3</f>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <f>[1]case1_cut_off!G3</f>
-        <v>-9.6321238080523154E-3</v>
+        <f>[1]Sheet1!G3</f>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <f>[1]case1_cut_off!H3</f>
-        <v>-0.14814785051690821</v>
+        <f>[1]Sheet1!H3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1890,32 +1416,32 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <f>[1]case1_cut_off!B4</f>
-        <v>7.6631345326675093E-2</v>
+        <f>[1]Sheet1!B4</f>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <f>[1]case1_cut_off!C4</f>
-        <v>0.1083401926570749</v>
+        <f>[1]Sheet1!C4</f>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f>[1]case1_cut_off!D4</f>
-        <v>0.29042009989698558</v>
+        <f>[1]Sheet1!D4</f>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f>[1]case1_cut_off!E4</f>
-        <v>3.6626370284116318E-3</v>
+        <f>[1]Sheet1!E4</f>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f>[1]case1_cut_off!F4</f>
-        <v>7.497579820586707E-4</v>
+        <f>[1]Sheet1!F4</f>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f>[1]case1_cut_off!G4</f>
-        <v>-8.0849658868697121E-5</v>
+        <f>[1]Sheet1!G4</f>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f>[1]case1_cut_off!H4</f>
-        <v>-2.4897721416745091E-2</v>
+        <f>[1]Sheet1!H4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1923,32 +1449,32 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <f>[1]case1_cut_off!B5</f>
-        <v>7.6631345326675093E-2</v>
+        <f>[1]Sheet1!B5</f>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <f>[1]case1_cut_off!C5</f>
-        <v>4.4072742552271338E-2</v>
+        <f>[1]Sheet1!C5</f>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <f>[1]case1_cut_off!D5</f>
-        <v>0.29042009989698558</v>
+        <f>[1]Sheet1!D5</f>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <f>[1]case1_cut_off!E5</f>
-        <v>3.6626370284116318E-3</v>
+        <f>[1]Sheet1!E5</f>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <f>[1]case1_cut_off!F5</f>
-        <v>7.497579820586707E-4</v>
+        <f>[1]Sheet1!F5</f>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <f>[1]case1_cut_off!G5</f>
-        <v>-8.0849658868697121E-5</v>
+        <f>[1]Sheet1!G5</f>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <f>[1]case1_cut_off!H5</f>
-        <v>-2.4897721416745091E-2</v>
+        <f>[1]Sheet1!H5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1956,31 +1482,31 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <f>[1]case1_cut_off!B6</f>
-        <v>0.70857260467403949</v>
+        <f>[1]Sheet1!B6</f>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <f>[1]case1_cut_off!C6</f>
+        <f>[1]Sheet1!C6</f>
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <f>[1]case1_cut_off!D6</f>
-        <v>0.37339727129612432</v>
+        <f>[1]Sheet1!D6</f>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <f>[1]case1_cut_off!E6</f>
-        <v>5.7693193622161134E-4</v>
+        <f>[1]Sheet1!E6</f>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <f>[1]case1_cut_off!F6</f>
-        <v>0.57631922258425961</v>
+        <f>[1]Sheet1!F6</f>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <f>[1]case1_cut_off!G6</f>
-        <v>-0.18371315914864439</v>
+        <f>[1]Sheet1!G6</f>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f>[1]case1_cut_off!H6</f>
+        <f>[1]Sheet1!H6</f>
         <v>0</v>
       </c>
     </row>
@@ -1989,32 +1515,32 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <f>[1]case1_cut_off!B7</f>
-        <v>0.70857260467403949</v>
+        <f>[1]Sheet1!B7</f>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <f>[1]case1_cut_off!C7</f>
+        <f>[1]Sheet1!C7</f>
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <f>[1]case1_cut_off!D7</f>
-        <v>0.37339727129612432</v>
+        <f>[1]Sheet1!D7</f>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <f>[1]case1_cut_off!E7</f>
-        <v>0.20931224450468419</v>
+        <f>[1]Sheet1!E7</f>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <f>[1]case1_cut_off!F7</f>
-        <v>8.7228248749966458E-2</v>
+        <f>[1]Sheet1!F7</f>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <f>[1]case1_cut_off!G7</f>
-        <v>-2.755697387229665E-2</v>
+        <f>[1]Sheet1!G7</f>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <f>[1]case1_cut_off!H7</f>
-        <v>-0.41784489627162208</v>
+        <f>[1]Sheet1!H7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2022,32 +1548,32 @@
         <v>13</v>
       </c>
       <c r="B8" s="2">
-        <f>[1]case1_cut_off!B8</f>
-        <v>0.12944187989952141</v>
+        <f>[1]Sheet1!B8</f>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <f>[1]case1_cut_off!C8</f>
-        <v>0.2166803853141499</v>
+        <f>[1]Sheet1!C8</f>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
-        <f>[1]case1_cut_off!D8</f>
-        <v>0.52275617981457423</v>
+        <f>[1]Sheet1!D8</f>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <f>[1]case1_cut_off!E8</f>
-        <v>6.0780442235684956E-3</v>
+        <f>[1]Sheet1!E8</f>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <f>[1]case1_cut_off!F8</f>
-        <v>3.7487899102933529E-4</v>
+        <f>[1]Sheet1!F8</f>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <f>[1]case1_cut_off!G8</f>
-        <v>-1.6169931773739451E-4</v>
+        <f>[1]Sheet1!G8</f>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <f>[1]case1_cut_off!H8</f>
-        <v>-4.1721130288211609E-2</v>
+        <f>[1]Sheet1!H8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2055,32 +1581,32 @@
         <v>14</v>
       </c>
       <c r="B9" s="2">
-        <f>[1]case1_cut_off!B9</f>
-        <v>0.12944187989952141</v>
+        <f>[1]Sheet1!B9</f>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
-        <f>[1]case1_cut_off!C9</f>
-        <v>2.7410638615451632E-2</v>
+        <f>[1]Sheet1!C9</f>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <f>[1]case1_cut_off!D9</f>
-        <v>0.52275617981457423</v>
+        <f>[1]Sheet1!D9</f>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <f>[1]case1_cut_off!E9</f>
-        <v>6.0780442235684956E-3</v>
+        <f>[1]Sheet1!E9</f>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <f>[1]case1_cut_off!F9</f>
-        <v>3.7487899102933529E-4</v>
+        <f>[1]Sheet1!F9</f>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <f>[1]case1_cut_off!G9</f>
-        <v>-1.6169931773739451E-4</v>
+        <f>[1]Sheet1!G9</f>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
-        <f>[1]case1_cut_off!H9</f>
-        <v>-4.1721130288211609E-2</v>
+        <f>[1]Sheet1!H9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2103,11 +1629,11 @@
       </c>
       <c r="B12" s="2">
         <f>SUM(B2,E2:H2)</f>
-        <v>0.38664437894890358</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
         <f>SUM(C2:D2)</f>
-        <v>0.18669863564806219</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -2117,11 +1643,11 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ref="B13:B17" si="0">SUM(B3,E3:H3)</f>
-        <v>0.22401834715321745</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ref="C13:C19" si="1">SUM(C3:D3)</f>
-        <v>0.18669863564806219</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -2131,11 +1657,11 @@
       </c>
       <c r="B14" s="2">
         <f>SUM(B4,E4:H4)*513</f>
-        <v>28.761431831165712</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
-        <v>0.39876029255406048</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
         <v>165</v>
@@ -2150,11 +1676,11 @@
       </c>
       <c r="B15" s="2">
         <f>SUM(B5,E5:H5)*513</f>
-        <v>28.761431831165712</v>
+        <v>0</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
-        <v>0.33449284244925692</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
         <v>121</v>
@@ -2169,11 +1695,11 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>1.1017556000458764</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="1"/>
-        <v>0.37339727129612432</v>
+        <v>0</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2183,11 +1709,11 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>0.55971122778477156</v>
+        <v>0</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>0.37339727129612432</v>
+        <v>0</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2197,11 +1723,11 @@
       </c>
       <c r="B18" s="2">
         <f>SUM(B8,E8:H8)*513</f>
-        <v>48.22814240969133</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
-        <v>0.73943656512872413</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3">
         <v>66</v>
@@ -2216,11 +1742,11 @@
       </c>
       <c r="B19" s="2">
         <f>SUM(B9,E9:H9)*513</f>
-        <v>48.22814240969133</v>
+        <v>0</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>0.55016681843002591</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
         <v>53</v>
@@ -2243,11 +1769,11 @@
       </c>
       <c r="B22">
         <f>IF($B$14+$C$14*D14&lt;SUM($B$12:$C$12)*D14,D14,)</f>
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <f>IF($B$14+$C$14*E14&lt;SUM($B$13:$C$13)*E14,E14,)</f>
-        <v>2406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2256,11 +1782,11 @@
       </c>
       <c r="B23">
         <f>IF($B$15+$C$15*D15&lt;SUM($B$12:$C$12)*D15,D15,)</f>
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <f>IF($B$15+$C$15*E15&lt;SUM($B$13:$C$13)*E15,E15,)</f>
-        <v>378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2269,11 +1795,11 @@
       </c>
       <c r="B24">
         <f>IF($B$18+$C$18*$D$18&lt;SUM($B$16:$C$16)*D18,D18,)</f>
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <f>IF($B$18+$C$18*$E$18&lt;SUM($B$17:$C$17)*E18,E18,)</f>
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2282,11 +1808,11 @@
       </c>
       <c r="B25">
         <f>IF($B$19+$C$19*D19&lt;SUM($B$16:$C$16)*D19,D19,)</f>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <f>IF($B$19+$C$19*E19&lt;SUM($B$17:$C$17)*E19,E19,)</f>
-        <v>126</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2428,32 +1954,32 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <f>[2]case2_consq!B2</f>
-        <v>1.018665785611905</v>
+        <f>[2]Sheet1!B2</f>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f>[2]case2_consq!C2</f>
-        <v>3.338416857872192E-3</v>
+        <f>[2]Sheet1!C2</f>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <f>[2]case2_consq!D2</f>
+        <f>[2]Sheet1!D2</f>
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <f>[2]case2_consq!E2</f>
+        <f>[2]Sheet1!E2</f>
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>[2]case2_consq!F2</f>
+        <f>[2]Sheet1!F2</f>
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>[2]case2_consq!G2</f>
-        <v>0.42287595205255551</v>
+        <f>[2]Sheet1!G2</f>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f>[2]case2_consq!H2</f>
-        <v>-6.2428369555823628E-2</v>
+        <f>[2]Sheet1!H2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2461,32 +1987,32 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <f>[2]case2_consq!B3</f>
-        <v>6.5028861808201235E-2</v>
+        <f>[2]Sheet1!B3</f>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <f>[2]case2_consq!C3</f>
-        <v>3.338416857872192E-3</v>
+        <f>[2]Sheet1!C3</f>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f>[2]case2_consq!D3</f>
-        <v>2.5475888421857919E-2</v>
+        <f>[2]Sheet1!D3</f>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <f>[2]case2_consq!E3</f>
-        <v>9.7206064670927406E-2</v>
+        <f>[2]Sheet1!E3</f>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <f>[2]case2_consq!F3</f>
-        <v>1.099250691244686E-2</v>
+        <f>[2]Sheet1!F3</f>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <f>[2]case2_consq!G3</f>
-        <v>1.4549819716063979E-2</v>
+        <f>[2]Sheet1!G3</f>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <f>[2]case2_consq!H3</f>
-        <v>-1.139290863783526E-4</v>
+        <f>[2]Sheet1!H3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2506,11 +2032,11 @@
       </c>
       <c r="B6" s="2">
         <f>SUM(B2,E2:H2)</f>
-        <v>1.3791133681086369</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <f>SUM(C2:D2)</f>
-        <v>3.338416857872192E-3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -2520,11 +2046,11 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B3,E3:H3)*250</f>
-        <v>46.915831005315276</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C3:D3)</f>
-        <v>2.8814305279730112E-2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
         <v>35</v>
@@ -2549,7 +2075,7 @@
       </c>
       <c r="B10">
         <f>IF(SUM($B$7:$C$7)+$C$7*D7&lt;SUM($B$6:$C$6)*D7,D7,)</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
@@ -2590,7 +2116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -2624,32 +2150,32 @@
         <v>18</v>
       </c>
       <c r="B2" s="2">
-        <f>[2]case2_cut_off!B2</f>
-        <v>0.91608567404048658</v>
+        <f>[2]Sheet1!B2</f>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <f>[2]case2_cut_off!C2</f>
-        <v>1.5628958568536959E-2</v>
+        <f>[2]Sheet1!C2</f>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <f>[2]case2_cut_off!D2</f>
+        <f>[2]Sheet1!D2</f>
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <f>[2]case2_cut_off!E2</f>
+        <f>[2]Sheet1!E2</f>
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>[2]case2_cut_off!F2</f>
+        <f>[2]Sheet1!F2</f>
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>[2]case2_cut_off!G2</f>
-        <v>0.42146179463133099</v>
+        <f>[2]Sheet1!G2</f>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f>[2]case2_cut_off!H2</f>
-        <v>-0.22857281463449181</v>
+        <f>[2]Sheet1!H2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2657,32 +2183,32 @@
         <v>19</v>
       </c>
       <c r="B3" s="2">
-        <f>[2]case2_cut_off!B3</f>
-        <v>0.19932473655670341</v>
+        <f>[2]Sheet1!B3</f>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <f>[2]case2_cut_off!C3</f>
-        <v>1.5628958568536959E-2</v>
+        <f>[2]Sheet1!C3</f>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f>[2]case2_cut_off!D3</f>
-        <v>0.1083401922196647</v>
+        <f>[2]Sheet1!D3</f>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <f>[2]case2_cut_off!E3</f>
-        <v>9.6563414184226967E-2</v>
+        <f>[2]Sheet1!E3</f>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <f>[2]case2_cut_off!F3</f>
-        <v>4.6674658848099793E-2</v>
+        <f>[2]Sheet1!F3</f>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <f>[2]case2_cut_off!G3</f>
-        <v>1.4434060952756589E-2</v>
+        <f>[2]Sheet1!G3</f>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <f>[2]case2_cut_off!H3</f>
-        <v>5.0473282917505302E-3</v>
+        <f>[2]Sheet1!H3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2702,11 +2228,11 @@
       </c>
       <c r="B6" s="2">
         <f>SUM(B2,E2:H2)</f>
-        <v>1.1089746540373258</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <f>SUM(C2:D2)</f>
-        <v>1.5628958568536959E-2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -2716,11 +2242,11 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B3,E3:H3)*250</f>
-        <v>90.51104970838432</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C3:D3)</f>
-        <v>0.12396915078820167</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
         <v>91</v>
@@ -2745,7 +2271,7 @@
       </c>
       <c r="B10">
         <f>IF(SUM($B$7:$C$7)+$C$7*D7&lt;SUM($B$6:$C$6)*D7,D7,)</f>
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
